--- a/tests/final_file.xlsx
+++ b/tests/final_file.xlsx
@@ -1,94 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Copy_Sheet_Excel_Py\tests\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4244DAE6-0FAA-4FFE-BEEE-999CB3452760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="8260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2660" yWindow="2660" windowWidth="14400" windowHeight="8260" tabRatio="600" firstSheet="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="13q" sheetId="5" r:id="rId1"/>
-    <sheet name="23" sheetId="4" r:id="rId2"/>
-    <sheet name="ef" sheetId="3" r:id="rId3"/>
-    <sheet name="k1" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet name="k1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ef" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="23" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="13q" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
-  <si>
-    <t>l1</t>
-  </si>
-  <si>
-    <t>l2</t>
-  </si>
-  <si>
-    <t>l3</t>
-  </si>
-  <si>
-    <t>l4</t>
-  </si>
-  <si>
-    <t>l5</t>
-  </si>
-  <si>
-    <t>l6</t>
-  </si>
-  <si>
-    <t>l7</t>
-  </si>
-  <si>
-    <t>l8</t>
-  </si>
-  <si>
-    <t>l9</t>
-  </si>
-  <si>
-    <t>ef</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <b val="1"/>
+      <i val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="16"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -156,34 +115,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -221,9 +239,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,27 +273,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -307,27 +307,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -500,250 +482,284 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05DDEEE3-F255-487A-8A1E-7AD62DDE0365}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>l1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>l2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>l3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>l5</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>l6</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>l7</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>l8</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>l9</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>ef</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>l2</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>l3</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>l5</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>l6</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.5">
-      <c r="A1" s="4">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.5">
-      <c r="A2" s="5">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.5">
-      <c r="A3" s="5">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.5">
-      <c r="A4" s="5">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.5">
-      <c r="A5" s="5">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.5">
-      <c r="A6" s="5">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.5">
-      <c r="A7" s="5">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.5">
-      <c r="A8" s="5">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="21" x14ac:dyDescent="0.5">
-      <c r="A9" s="5">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.5">
-      <c r="A10" s="5">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="21" x14ac:dyDescent="0.5">
-      <c r="A11" s="5">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="21" x14ac:dyDescent="0.5">
-      <c r="A12" s="5">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="21" x14ac:dyDescent="0.5">
-      <c r="A13" s="5">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.5">
-      <c r="A14" s="5">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="21" x14ac:dyDescent="0.5">
-      <c r="A15" s="5">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="6">
+    <row r="1" ht="21" customHeight="1">
+      <c r="A1" s="4" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" ht="21" customHeight="1">
+      <c r="A2" s="5" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" ht="21" customHeight="1">
+      <c r="A3" s="5" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" ht="21" customHeight="1">
+      <c r="A4" s="5" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" ht="21" customHeight="1">
+      <c r="A5" s="5" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" ht="21" customHeight="1">
+      <c r="A6" s="5" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" ht="21" customHeight="1">
+      <c r="A7" s="5" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" ht="21" customHeight="1">
+      <c r="A8" s="5" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" ht="21" customHeight="1">
+      <c r="A9" s="5" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" ht="21" customHeight="1">
+      <c r="A10" s="5" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" ht="21" customHeight="1">
+      <c r="A11" s="5" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" ht="21" customHeight="1">
+      <c r="A12" s="5" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" ht="21" customHeight="1">
+      <c r="A13" s="5" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" ht="21" customHeight="1">
+      <c r="A14" s="5" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" ht="21" customHeight="1">
+      <c r="A15" s="5" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" ht="21.5" customHeight="1" thickBot="1">
+      <c r="A16" s="6" t="n">
         <v>111</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE792F3-3AAC-420F-AEC6-576A294D7600}">
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>111</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{113D543F-4C30-4521-9D86-EFE2EBB9E19C}">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9C1BAA-98D7-4C19-BC8D-9264991B691B}">
-  <dimension ref="A1:A9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/tests/final_file.xlsx
+++ b/tests/final_file.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2660" yWindow="2660" windowWidth="14400" windowHeight="8260" tabRatio="600" firstSheet="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="760" yWindow="760" windowWidth="14400" windowHeight="8260" tabRatio="600" firstSheet="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="k1" sheetId="1" state="visible" r:id="rId1"/>

--- a/tests/final_file.xlsx
+++ b/tests/final_file.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="760" yWindow="760" windowWidth="14400" windowHeight="8260" tabRatio="600" firstSheet="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="8260" tabRatio="600" firstSheet="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="k1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ef" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="23" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="13q" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="13q" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="лист" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -19,20 +19,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <family val="2"/>
-      <b val="1"/>
-      <i val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -114,14 +104,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -620,41 +609,91 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="21" customHeight="1">
       <c r="A1" s="3" t="n">
         <v>111</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
+    <row r="2" ht="21" customHeight="1">
+      <c r="A2" s="4" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" ht="21" customHeight="1">
+      <c r="A3" s="4" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" ht="21" customHeight="1">
+      <c r="A4" s="4" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" ht="21" customHeight="1">
+      <c r="A5" s="4" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" ht="21" customHeight="1">
+      <c r="A6" s="4" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" ht="21" customHeight="1">
+      <c r="A7" s="4" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" ht="21" customHeight="1">
+      <c r="A8" s="4" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" ht="21" customHeight="1">
+      <c r="A9" s="4" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" ht="21" customHeight="1">
+      <c r="A10" s="4" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" ht="21" customHeight="1">
+      <c r="A11" s="4" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" ht="21" customHeight="1">
+      <c r="A12" s="4" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" ht="21" customHeight="1">
+      <c r="A13" s="4" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" ht="21" customHeight="1">
+      <c r="A14" s="4" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" ht="21" customHeight="1">
+      <c r="A15" s="4" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" ht="21.5" customHeight="1" thickBot="1">
+      <c r="A16" s="5" t="n">
         <v>111</v>
       </c>
     </row>
@@ -670,96 +709,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="E13" sqref="E13:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
-  <sheetData>
-    <row r="1" ht="21" customHeight="1">
-      <c r="A1" s="4" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" ht="21" customHeight="1">
-      <c r="A2" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" ht="21" customHeight="1">
-      <c r="A3" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" ht="21" customHeight="1">
-      <c r="A4" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" ht="21" customHeight="1">
-      <c r="A5" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" ht="21" customHeight="1">
-      <c r="A6" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" ht="21" customHeight="1">
-      <c r="A7" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" ht="21" customHeight="1">
-      <c r="A8" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" ht="21" customHeight="1">
-      <c r="A9" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" ht="21" customHeight="1">
-      <c r="A10" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" ht="21" customHeight="1">
-      <c r="A11" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" ht="21" customHeight="1">
-      <c r="A12" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" ht="21" customHeight="1">
-      <c r="A13" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" ht="21" customHeight="1">
-      <c r="A14" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" ht="21" customHeight="1">
-      <c r="A15" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" ht="21.5" customHeight="1" thickBot="1">
-      <c r="A16" s="6" t="n">
-        <v>111</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/tests/final_file.xlsx
+++ b/tests/final_file.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="8260" tabRatio="600" firstSheet="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2660" yWindow="2660" windowWidth="14400" windowHeight="8260" tabRatio="600" firstSheet="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="k1" sheetId="1" state="visible" r:id="rId1"/>

--- a/tests/final_file.xlsx
+++ b/tests/final_file.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2660" yWindow="2660" windowWidth="14400" windowHeight="8260" tabRatio="600" firstSheet="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="8260" tabRatio="600" firstSheet="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="k1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="23" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ef" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="13q" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="лист" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="лист" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="13q" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -35,18 +35,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -104,10 +98,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -476,75 +469,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A9"/>
+  <dimension ref="A3:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>l1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>l2</t>
-        </is>
-      </c>
-    </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>l3</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>l4</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>l5</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>l6</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>l7</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>l8</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>l9</t>
-        </is>
+      <c r="A3" t="n">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -567,32 +502,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>ef</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>l2</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>l3</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>l4</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>l5</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>l6</t>
         </is>
@@ -609,97 +544,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="E13" sqref="E13:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
-  <sheetData>
-    <row r="1" ht="21" customHeight="1">
-      <c r="A1" s="3" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" ht="21" customHeight="1">
-      <c r="A2" s="4" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" ht="21" customHeight="1">
-      <c r="A3" s="4" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" ht="21" customHeight="1">
-      <c r="A4" s="4" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" ht="21" customHeight="1">
-      <c r="A5" s="4" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" ht="21" customHeight="1">
-      <c r="A6" s="4" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" ht="21" customHeight="1">
-      <c r="A7" s="4" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" ht="21" customHeight="1">
-      <c r="A8" s="4" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" ht="21" customHeight="1">
-      <c r="A9" s="4" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" ht="21" customHeight="1">
-      <c r="A10" s="4" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" ht="21" customHeight="1">
-      <c r="A11" s="4" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" ht="21" customHeight="1">
-      <c r="A12" s="4" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" ht="21" customHeight="1">
-      <c r="A13" s="4" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" ht="21" customHeight="1">
-      <c r="A14" s="4" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" ht="21" customHeight="1">
-      <c r="A15" s="4" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" ht="21.5" customHeight="1" thickBot="1">
-      <c r="A16" s="5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -709,14 +562,96 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:F14"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" ht="21" customHeight="1">
+      <c r="A1" s="2" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" ht="21" customHeight="1">
+      <c r="A2" s="3" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" ht="21" customHeight="1">
+      <c r="A3" s="3" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" ht="21" customHeight="1">
+      <c r="A4" s="3" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" ht="21" customHeight="1">
+      <c r="A5" s="3" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" ht="21" customHeight="1">
+      <c r="A6" s="3" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" ht="21" customHeight="1">
+      <c r="A7" s="3" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" ht="21" customHeight="1">
+      <c r="A8" s="3" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" ht="21" customHeight="1">
+      <c r="A9" s="3" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" ht="21" customHeight="1">
+      <c r="A10" s="3" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" ht="21" customHeight="1">
+      <c r="A11" s="3" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" ht="21" customHeight="1">
+      <c r="A12" s="3" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" ht="21" customHeight="1">
+      <c r="A13" s="3" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" ht="21" customHeight="1">
+      <c r="A14" s="3" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" ht="21" customHeight="1">
+      <c r="A15" s="3" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" ht="21.5" customHeight="1" thickBot="1">
+      <c r="A16" s="4" t="n">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>